--- a/Automation/Workspace/Odysseus_Product/src/main/java/testData/LocalCruiseData.xlsx
+++ b/Automation/Workspace/Odysseus_Product/src/main/java/testData/LocalCruiseData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Monish Luthra</t>
   </si>
   <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>305 White House</t>
   </si>
   <si>
@@ -77,6 +74,63 @@
   </si>
   <si>
     <t>State Bank Of India</t>
+  </si>
+  <si>
+    <t>Firstname_GuestOne</t>
+  </si>
+  <si>
+    <t>Middlename_GuestOne</t>
+  </si>
+  <si>
+    <t>Lastname_GuestOne</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Street_Address</t>
+  </si>
+  <si>
+    <t>Cty</t>
+  </si>
+  <si>
+    <t>Zpcode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Firstname_GuestTwo</t>
+  </si>
+  <si>
+    <t>Middlename_GuestTwo</t>
+  </si>
+  <si>
+    <t>Lastname_GuestTwo</t>
+  </si>
+  <si>
+    <t>Monish</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Luthra</t>
+  </si>
+  <si>
+    <t>ajit_nakum@odysseussolutions.com</t>
+  </si>
+  <si>
+    <t>White house</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>4387751111111111</t>
   </si>
 </sst>
 </file>
@@ -448,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,17 +513,26 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,32 +542,65 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,32 +610,68 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>10245</v>
+      </c>
+      <c r="K2">
+        <v>4565289563</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="T2">
+        <v>10245</v>
+      </c>
+      <c r="U2">
+        <v>8952634785</v>
+      </c>
+      <c r="V2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2">
-        <v>10245</v>
-      </c>
-      <c r="J2">
-        <v>8952634785</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>